--- a/biology/Botanique/Echinops_ritro/Echinops_ritro.xlsx
+++ b/biology/Botanique/Echinops_ritro/Echinops_ritro.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Echinops ritro
 L'Azurite, ou oursin bleu (Echinops ritro), est une espèce de plantes vivaces appartenant au genre Echinops et à la famille des Astéracées, ou Composées.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante herbacée vivace a une taille moyenne (&lt; 80 cm). La tige érigée blanche, glabre ou à poils très fins, porte des feuilles coriaces, vertes à revers tomenteux, assez étroites, alternes et légèrement engainantes, pennatipartites, à lobes très épineux.
 La floraison a lieu entre juillet et septembre. Il apparaît de nombreuses inflorescences sphériques bleu-violet disposées en panicule. Comme pour toutes les plantes du genre Echinops, ces inflorescences portent de nombreux capitules ayant chacun une seule fleur tubulée à cinq lobes. On peut dire en quelque sorte que l'inflorescence est un capitule de capitules. Bien que la pollinisation se fasse généralement grâce aux insectes (plante entomogame), une auto-fécondation est possible.
@@ -545,7 +559,9 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Assez courante dans l'Europe méridionale et plus généralement sur le pourtour méditerranéen, elle affectionne les friches et prairies sèches, rocheuses, le plus souvent sur sol calcaire (garrigue).
 </t>
@@ -576,9 +592,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (3 juil. 2011)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (3 juil. 2011) :
 Echinops ritro subsp. ritro
 Echinops ritro subsp. ruthenicus
 Echinops ritro subsp. siculus</t>
